--- a/mini1/csv_layout.xlsx
+++ b/mini1/csv_layout.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="120">
   <si>
     <t>사용자구분코드</t>
   </si>
@@ -400,10 +400,47 @@
     <t>버스정류장정보</t>
   </si>
   <si>
+    <t>거래내역</t>
+  </si>
+  <si>
+    <t>USER_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_bs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_s1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_deal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하철 1회권_사용자구분코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>지하철1회권</t>
-  </si>
-  <si>
-    <t>거래내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -435,7 +472,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -458,50 +495,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1167,41 +1172,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="3"/>
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1227,10 +1235,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>83</v>
       </c>
@@ -1295,14 +1305,18 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="D11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
@@ -1397,10 +1411,12 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>94</v>
       </c>
@@ -1591,14 +1607,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A19:B19"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
